--- a/ecs-git/ecs - Copy.xlsx
+++ b/ecs-git/ecs - Copy.xlsx
@@ -216,7 +216,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1151,11 +1151,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="5723292"/>
-        <c:axId val="39489563"/>
+        <c:axId val="73938371"/>
+        <c:axId val="37570518"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="5723292"/>
+        <c:axId val="73938371"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1190,12 +1190,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="39489563"/>
+        <c:crossAx val="37570518"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="39489563"/>
+        <c:axId val="37570518"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1239,7 +1239,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="5723292"/>
+        <c:crossAx val="73938371"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1276,7 +1276,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2208,11 +2208,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="78418714"/>
-        <c:axId val="49439566"/>
+        <c:axId val="7570190"/>
+        <c:axId val="31053202"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="78418714"/>
+        <c:axId val="7570190"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2247,12 +2247,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="49439566"/>
+        <c:crossAx val="31053202"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="49439566"/>
+        <c:axId val="31053202"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2296,7 +2296,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78418714"/>
+        <c:crossAx val="7570190"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2333,7 +2333,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3265,11 +3265,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="70074357"/>
-        <c:axId val="97821130"/>
+        <c:axId val="51836151"/>
+        <c:axId val="16516314"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="70074357"/>
+        <c:axId val="51836151"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3304,12 +3304,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97821130"/>
+        <c:crossAx val="16516314"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="97821130"/>
+        <c:axId val="16516314"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3353,7 +3353,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70074357"/>
+        <c:crossAx val="51836151"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3493,7 +3493,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="Q140:X143 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3519,7 +3519,7 @@
   <dimension ref="A2:G65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="Q140:X143 D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -8630,7 +8630,7 @@
   <dimension ref="A2:Y146"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A106" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Z148" activeCellId="0" sqref="Z148"/>
+      <selection pane="topLeft" activeCell="Q140" activeCellId="0" sqref="Q140:X143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
